--- a/J_UserLag.xlsx
+++ b/J_UserLag.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t xml:space="preserve">Test to see if playing the game cause lag </t>
+  </si>
+  <si>
+    <t>Tester</t>
   </si>
   <si>
     <t>Procedure</t>
@@ -105,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -121,6 +124,10 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <b/>
+      <name val="Arial"/>
+    </font>
     <font>
       <name val="Arial"/>
     </font>
@@ -139,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border/>
     <border>
       <left style="thin">
@@ -169,6 +176,20 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -177,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -208,6 +229,12 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -220,7 +247,7 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -229,7 +256,7 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -560,87 +587,89 @@
       <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="16">
+      <c r="D6" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="18">
         <v>1.0</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="16">
+      <c r="C7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="18">
         <v>2.0</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="16">
+      <c r="C8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="18">
         <v>3.0</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="16">
+      <c r="C9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="18">
         <v>4.0</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="20" t="s">
+      <c r="C10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="5"/>
@@ -654,13 +683,20 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
+    <row r="14">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
